--- a/test_a.xlsx
+++ b/test_a.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test_a.xlsx
+++ b/test_a.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="285" yWindow="90" windowWidth="9540" windowHeight="4515"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_a_sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -457,7 +457,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test_a.xlsx
+++ b/test_a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="90" windowWidth="9540" windowHeight="4515"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="test_a_sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Apples</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>Oranges</t>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -465,47 +477,58 @@
     <col min="1" max="1" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="1">
-        <v>42099.565300925926</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1">
-        <v>42099.153738425928</v>
+        <v>42099.565300925926</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1">
-        <v>42100.532534722224</v>
+        <v>42099.153738425928</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="1">
+        <v>42100.532534722224</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="1">
         <v>42102.374803240738</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
     </row>

--- a/test_a.xlsx
+++ b/test_a.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="7995"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_a_sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="A_sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A_Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="A_Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -543,7 +543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -556,7 +558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
